--- a/src/reports/1422194909.xlsx
+++ b/src/reports/1422194909.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Дата контакта с ботом</t>
+          <t>Дата первого касания</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -467,17 +467,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Пол питомца</t>
+          <t>Пол собаки</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Порода питомца</t>
+          <t>Порода собаки</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Имя питомца</t>
+          <t>Имя собаки</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -514,22 +514,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-10-14 13:58:01</t>
+          <t>2024-10-14 17:11:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-10-14 16:44:57</t>
+          <t>2024-10-14 17:14:11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>+79113152214</t>
+          <t>896483255214</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>dog@gmail.com</t>
+          <t>test@mmail.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -539,22 +539,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>фывфв</t>
+          <t>Померанский шпиц</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ывап</t>
+          <t>Молли</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01.11.2001</t>
+          <t>01.04.2024</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6 месяца</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-10-14 15:57:00</t>
+          <t>2024-10-14 17:13:15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-10-14 15:57:22</t>
+          <t>2024-10-14 17:13:38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+79113152214</t>
+          <t>89113127827</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tet@gnd.do</t>
+          <t>Test@gmail.com</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -606,22 +606,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Овчарка</t>
+          <t>Овчара</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Луи</t>
+          <t>Шерстяной</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>01.11.2010</t>
+          <t>11.12.1990</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
     </row>

--- a/src/reports/1422194909.xlsx
+++ b/src/reports/1422194909.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-10-14 17:14:11</t>
+          <t>2024-10-14 17:43:06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6 месяца</t>
+          <t>6 месяца(ев)</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-10-14 17:13:38</t>
+          <t>2024-10-14 17:17:39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>89113127827</t>
+          <t>+79113152214</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">

--- a/src/reports/1422194909.xlsx
+++ b/src/reports/1422194909.xlsx
@@ -457,35 +457,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Телефон</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Пол собаки</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Порода собаки</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Имя собаки</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Дата рождения</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Лет</t>
         </is>
@@ -519,42 +524,47 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-10-14 17:43:06</t>
+          <t>2024-10-17 10:21:12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>896483255214</t>
+          <t>Миронова Мирослава Григорьевна</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>test@mmail.com</t>
+          <t>+79113152214</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>dog@gmail.com</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Мужской</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Померанский шпиц</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Молли</t>
+          <t>ываыва</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01.04.2024</t>
+          <t>ыаврвар</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6 месяца(ев)</t>
+          <t>01.11.2001</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -621,7 +631,84 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>Не заполнил</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Неизвестно</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Не указан</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Не указана</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-10-15 22:11:05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-10-15 22:11:05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Не заполнил</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Не заполнил</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Не заполнил</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Не заполнил</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Не заполнил</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Не заполнил</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Не заполнил</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Неизвестно</t>
         </is>
       </c>
     </row>

--- a/src/reports/1422194909.xlsx
+++ b/src/reports/1422194909.xlsx
@@ -524,22 +524,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-10-17 10:21:12</t>
+          <t>2024-10-18 14:00:55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Миронова Мирослава Григорьевна</t>
+          <t>Ntcn nt dsf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>+79113152214</t>
+          <t>+7965214251</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>dog@gmail.com</t>
+          <t>asdaS@dasd.conm</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -549,22 +549,22 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ываыва</t>
+          <t>sdf sdf</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ыаврвар</t>
+          <t>sdgsfdgsdfg</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01.11.2001</t>
+          <t>05.03.2024</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7 месяца(ев)</t>
         </is>
       </c>
     </row>

--- a/src/reports/1422194909.xlsx
+++ b/src/reports/1422194909.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-10-18 14:00:55</t>
+          <t>2024-11-14 10:34:08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7 месяца(ев)</t>
+          <t>8 месяца(ев)</t>
         </is>
       </c>
     </row>
